--- a/FE12/Cell Modeling/FE11_P42A_InternalResistances.xlsx
+++ b/FE12/Cell Modeling/FE11_P42A_InternalResistances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Cell Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad310da11adffc61/Documentos/GitHub/FE12-Accumulator/FE12/Cell Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC180E4-CDD9-47ED-81A0-ABDD4225D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3FC180E4-CDD9-47ED-81A0-ABDD4225D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1843DE3F-F0B0-49D0-B449-6EF5012A3C67}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="4485" windowWidth="21495" windowHeight="12795" xr2:uid="{CEA28562-A774-4179-8452-6FD2F2C87B47}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15345" xr2:uid="{CEA28562-A774-4179-8452-6FD2F2C87B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1421,16 +1421,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19877</xdr:rowOff>
+      <xdr:rowOff>144116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>245717</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>245716</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>16564</xdr:rowOff>
+      <xdr:rowOff>140803</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1456,6 +1456,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1778,7 +1782,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
